--- a/Assets/Resources/test.xlsx
+++ b/Assets/Resources/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbech\TestImageText\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbech\HKU\introweek\csv-to-badge\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9BAE7A-2EAE-4F42-B285-B78BF9055125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00ABCFE-A7B1-4B5A-BB09-3B46E2CF5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F07EDEC-6CF8-4E6A-8148-8C6C1EE244C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>naam</t>
   </si>
@@ -44,18 +44,6 @@
     <t>team</t>
   </si>
   <si>
-    <t>Rick den B.</t>
-  </si>
-  <si>
-    <t>D.F. van t W</t>
-  </si>
-  <si>
-    <t>Joram van der S</t>
-  </si>
-  <si>
-    <t>Joelle B</t>
-  </si>
-  <si>
     <t>Ricardo B</t>
   </si>
   <si>
@@ -65,9 +53,6 @@
     <t>Marco H</t>
   </si>
   <si>
-    <t>Kris H</t>
-  </si>
-  <si>
     <t>Kai M</t>
   </si>
   <si>
@@ -75,6 +60,285 @@
   </si>
   <si>
     <t>Max B</t>
+  </si>
+  <si>
+    <t>Aaron D</t>
+  </si>
+  <si>
+    <t>Amy T</t>
+  </si>
+  <si>
+    <t>Gabriel A</t>
+  </si>
+  <si>
+    <t>Owen B</t>
+  </si>
+  <si>
+    <t>Emily S</t>
+  </si>
+  <si>
+    <t>Johanna W</t>
+  </si>
+  <si>
+    <t>Quinn V</t>
+  </si>
+  <si>
+    <t>Rick B</t>
+  </si>
+  <si>
+    <t>Senna T</t>
+  </si>
+  <si>
+    <t>Pascal S</t>
+  </si>
+  <si>
+    <t>Max M</t>
+  </si>
+  <si>
+    <t>Phil P</t>
+  </si>
+  <si>
+    <t>Amy S</t>
+  </si>
+  <si>
+    <t>Ely D</t>
+  </si>
+  <si>
+    <t>Adam b</t>
+  </si>
+  <si>
+    <t>Jo-Anne H</t>
+  </si>
+  <si>
+    <t>Grover B</t>
+  </si>
+  <si>
+    <t>Twan P</t>
+  </si>
+  <si>
+    <t>Vincent K</t>
+  </si>
+  <si>
+    <t>Angela M</t>
+  </si>
+  <si>
+    <t>Raoul S</t>
+  </si>
+  <si>
+    <t>Altair T</t>
+  </si>
+  <si>
+    <t>Gwenne R</t>
+  </si>
+  <si>
+    <t>Erik M</t>
+  </si>
+  <si>
+    <t>Koen V</t>
+  </si>
+  <si>
+    <t>Tijmen O</t>
+  </si>
+  <si>
+    <t>Thomas B</t>
+  </si>
+  <si>
+    <t>Lotte H</t>
+  </si>
+  <si>
+    <t>Laurens T</t>
+  </si>
+  <si>
+    <t>Ginia S</t>
+  </si>
+  <si>
+    <t>Anouk S</t>
+  </si>
+  <si>
+    <t>Gina B</t>
+  </si>
+  <si>
+    <t>Ben R</t>
+  </si>
+  <si>
+    <t>Jermaine S</t>
+  </si>
+  <si>
+    <t>Randy Q</t>
+  </si>
+  <si>
+    <t>Joeri A</t>
+  </si>
+  <si>
+    <t>Nynke S</t>
+  </si>
+  <si>
+    <t>Ralf Z</t>
+  </si>
+  <si>
+    <t>Cas W</t>
+  </si>
+  <si>
+    <t>Jester V</t>
+  </si>
+  <si>
+    <t>Antoinette F</t>
+  </si>
+  <si>
+    <t>Jelle H</t>
+  </si>
+  <si>
+    <t>Kirsten W</t>
+  </si>
+  <si>
+    <t>Philip G</t>
+  </si>
+  <si>
+    <t>Nicky S</t>
+  </si>
+  <si>
+    <t>Kristian H</t>
+  </si>
+  <si>
+    <t>Bryan D</t>
+  </si>
+  <si>
+    <t>Jelt L</t>
+  </si>
+  <si>
+    <t>Aria K</t>
+  </si>
+  <si>
+    <t>Kirsten K</t>
+  </si>
+  <si>
+    <t>Ilse B</t>
+  </si>
+  <si>
+    <t>Rue H</t>
+  </si>
+  <si>
+    <t>Siem T</t>
+  </si>
+  <si>
+    <t>Lucas S</t>
+  </si>
+  <si>
+    <t>Ebbe A</t>
+  </si>
+  <si>
+    <t>Aiden K</t>
+  </si>
+  <si>
+    <t>Caesar P</t>
+  </si>
+  <si>
+    <t>Arina K</t>
+  </si>
+  <si>
+    <t>Nils H</t>
+  </si>
+  <si>
+    <t>Noa L</t>
+  </si>
+  <si>
+    <t>Silver K</t>
+  </si>
+  <si>
+    <t>Sophie B</t>
+  </si>
+  <si>
+    <t>Laurien B</t>
+  </si>
+  <si>
+    <t>Caroline L</t>
+  </si>
+  <si>
+    <t>Finn S</t>
+  </si>
+  <si>
+    <t>Daan R</t>
+  </si>
+  <si>
+    <t>Joram S</t>
+  </si>
+  <si>
+    <t>Joshua B</t>
+  </si>
+  <si>
+    <t>Karen H</t>
+  </si>
+  <si>
+    <t>Luuk V</t>
+  </si>
+  <si>
+    <t>Thijs L</t>
+  </si>
+  <si>
+    <t>Nina B</t>
+  </si>
+  <si>
+    <t>Nikki H</t>
+  </si>
+  <si>
+    <t>Jens D</t>
+  </si>
+  <si>
+    <t>Floor K</t>
+  </si>
+  <si>
+    <t>Dominique F</t>
+  </si>
+  <si>
+    <t>Wessel R</t>
+  </si>
+  <si>
+    <t>Dennis B</t>
+  </si>
+  <si>
+    <t>Joris P</t>
+  </si>
+  <si>
+    <t>Max W</t>
+  </si>
+  <si>
+    <t>Maxine D</t>
+  </si>
+  <si>
+    <t>Sam L</t>
+  </si>
+  <si>
+    <t>Ryan A</t>
+  </si>
+  <si>
+    <t>Sven W</t>
+  </si>
+  <si>
+    <t>Nathan H</t>
+  </si>
+  <si>
+    <t>Floor P</t>
+  </si>
+  <si>
+    <t>Dani W</t>
+  </si>
+  <si>
+    <t>Do Z</t>
+  </si>
+  <si>
+    <t>Orlando S</t>
+  </si>
+  <si>
+    <t>Miguel M</t>
+  </si>
+  <si>
+    <t>Rick L</t>
+  </si>
+  <si>
+    <t>Taran S</t>
+  </si>
+  <si>
+    <t>Joelle H</t>
   </si>
 </sst>
 </file>
@@ -450,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3736275-6A94-44B0-8504-87475D69EBF7}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +736,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -480,7 +744,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -488,74 +752,783 @@
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
         <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
